--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314D71FD-F1A5-436A-89FC-BD34CF98BB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F56E9-3600-4FCA-8215-A77BB5EF4B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36874C95-CBBE-4C15-B980-0882C701F17E}"/>
   </bookViews>
@@ -40,10 +40,6 @@
 </t>
   </si>
   <si>
-    <t>Это блок кода, который выполняет определенную задачу,имеет имя и
-может быть вызван д</t>
-  </si>
-  <si>
     <t xml:space="preserve">Из каких символов может состоять имя переменной в Python? Выберите варианты, в которых имена переменных указаны корректно. 
 </t>
   </si>
@@ -317,6 +313,9 @@
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>Это блок кода, который выполняет определенную задачу,имеет имя и может быть вызван для повторного использования.</t>
   </si>
 </sst>
 </file>
@@ -419,12 +418,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63801DF9-1BE3-4CDD-A7C1-C8AD45741FAD}" name="Таблица1" displayName="Таблица1" ref="A1:C43" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63801DF9-1BE3-4CDD-A7C1-C8AD45741FAD}" name="Таблица1" displayName="Таблица1" ref="A1:C43" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C43" xr:uid="{63801DF9-1BE3-4CDD-A7C1-C8AD45741FAD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{715ED686-2B44-4CDB-A632-BBFA95CDC451}" name="Description" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{25B77562-F54D-4DC2-9DB8-DCE45CDB496C}" name="Homework" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6B789A14-8BBD-4E6F-AF0D-4AAD685D0B40}" name="Answer" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{715ED686-2B44-4CDB-A632-BBFA95CDC451}" name="Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{25B77562-F54D-4DC2-9DB8-DCE45CDB496C}" name="Homework" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6B789A14-8BBD-4E6F-AF0D-4AAD685D0B40}" name="Answer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -730,7 +729,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,13 +741,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -758,24 +757,24 @@
       <c r="B2" s="1">
         <v>6063</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>6063</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>6063</v>
@@ -786,7 +785,7 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>6064</v>
@@ -797,7 +796,7 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>6064</v>
@@ -808,18 +807,18 @@
     </row>
     <row r="7" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>6064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>6065</v>
@@ -830,7 +829,7 @@
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>6065</v>
@@ -841,18 +840,18 @@
     </row>
     <row r="10" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>6065</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>6066</v>
@@ -863,7 +862,7 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>6066</v>
@@ -874,18 +873,18 @@
     </row>
     <row r="13" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>6066</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>6067</v>
@@ -896,7 +895,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>6067</v>
@@ -907,29 +906,29 @@
     </row>
     <row r="16" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>6067</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>6068</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>6068</v>
@@ -940,7 +939,7 @@
     </row>
     <row r="19" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>6068</v>
@@ -951,62 +950,62 @@
     </row>
     <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>6069</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>6069</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1">
         <v>6069</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>6070</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
         <v>6070</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
         <v>6070</v>
@@ -1017,29 +1016,29 @@
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1">
         <v>6071</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1">
         <v>6071</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>6071</v>
@@ -1050,18 +1049,18 @@
     </row>
     <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
         <v>6072</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
         <v>6072</v>
@@ -1072,145 +1071,145 @@
     </row>
     <row r="31" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1">
         <v>6072</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
         <v>6073</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1">
         <v>6073</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1">
         <v>6073</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1">
         <v>6074</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1">
         <v>6074</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>6074</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1">
         <v>6075</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="1">
         <v>6075</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1">
         <v>6075</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1">
         <v>6076</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1">
         <v>6076</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1">
         <v>6076</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F56E9-3600-4FCA-8215-A77BB5EF4B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E58452-65B5-4543-BFFF-AE8B61304A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36874C95-CBBE-4C15-B980-0882C701F17E}"/>
   </bookViews>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5C9E26-53E9-4659-92C3-7972911C7AF3}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
